--- a/EG2B.xlsx
+++ b/EG2B.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="91">
   <si>
     <t/>
   </si>
   <si>
-    <t>20046841</t>
-  </si>
-  <si>
-    <t>BIG COLA BTL 3.1L</t>
+    <t>20126648</t>
+  </si>
+  <si>
+    <t>LE MINERALE 6X330ML</t>
   </si>
   <si>
     <t>EG2B</t>
@@ -31,223 +31,193 @@
     <t>RT,(E-1B)</t>
   </si>
   <si>
-    <t>20046842</t>
-  </si>
-  <si>
-    <t>BIG STRAW BTL 3.1L</t>
+    <t>20090527</t>
+  </si>
+  <si>
+    <t>CRYSTALIN BTL 600ML</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>20090527</t>
-  </si>
-  <si>
-    <t>CRYSTALIN BTL 600ML</t>
+    <t>20005529</t>
+  </si>
+  <si>
+    <t>NESTLE PURE LIFE 600</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>10004336</t>
-  </si>
-  <si>
-    <t>INDOMARET AIR MIN600</t>
+    <t>20137991</t>
+  </si>
+  <si>
+    <t>AQUVIVA BTL 700ML</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>PT,(E-1H)</t>
-  </si>
-  <si>
-    <t>20139699</t>
-  </si>
-  <si>
-    <t>OASIS  MNRL PH9 500</t>
+    <t>20128918</t>
+  </si>
+  <si>
+    <t>ISOPLUS COCO 350ML</t>
+  </si>
+  <si>
+    <t>20069773</t>
+  </si>
+  <si>
+    <t>ISOPLUS BTL 350ML</t>
+  </si>
+  <si>
+    <t>20019673</t>
+  </si>
+  <si>
+    <t>YOU C1000 LMN WTR500</t>
+  </si>
+  <si>
+    <t>20019674</t>
+  </si>
+  <si>
+    <t>YOU C1000 ORG WTR500</t>
+  </si>
+  <si>
+    <t>20037565</t>
+  </si>
+  <si>
+    <t>PUCUK/H TEH MLATI500</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>20065778</t>
-  </si>
-  <si>
-    <t>COCA COLA PET 390 ML</t>
-  </si>
-  <si>
-    <t>RT,(E-14H)</t>
-  </si>
-  <si>
-    <t>20065779</t>
-  </si>
-  <si>
-    <t>SPRITE PET 390 ML</t>
-  </si>
-  <si>
-    <t>20065780</t>
-  </si>
-  <si>
-    <t>FANTA STRW PET 390ML</t>
-  </si>
-  <si>
-    <t>20128821</t>
-  </si>
-  <si>
-    <t>COCA COLA ZERO 390ML</t>
-  </si>
-  <si>
-    <t>20130667</t>
-  </si>
-  <si>
-    <t>SPRITE ZERO LIME 390</t>
-  </si>
-  <si>
-    <t>20128233</t>
-  </si>
-  <si>
-    <t>NU CHO TEA HZLTEA330</t>
+    <t>20048348</t>
+  </si>
+  <si>
+    <t>PUCUK/H TEH L/SGR500</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>20040383</t>
-  </si>
-  <si>
-    <t>NU MILK TEA 330ML</t>
+    <t>20082395</t>
+  </si>
+  <si>
+    <t>TEH BOTOL TAWAR 350</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>20138202</t>
-  </si>
-  <si>
-    <t>NU MATCHA LATTEA 330</t>
+    <t>RT,(E-3.5B)</t>
+  </si>
+  <si>
+    <t>20113450</t>
+  </si>
+  <si>
+    <t>ICHITAN MLK BRWN 300</t>
+  </si>
+  <si>
+    <t>RT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20085054</t>
+  </si>
+  <si>
+    <t>ICHTN THAI M.TEA 300</t>
+  </si>
+  <si>
+    <t>20101102</t>
+  </si>
+  <si>
+    <t>ICHTN MLK GR.TEA 300</t>
+  </si>
+  <si>
+    <t>20135599</t>
+  </si>
+  <si>
+    <t>ICHTAN KRN BANANA300</t>
+  </si>
+  <si>
+    <t>20093586</t>
+  </si>
+  <si>
+    <t>ICHTN THAI M.COFF300</t>
+  </si>
+  <si>
+    <t>20140327</t>
+  </si>
+  <si>
+    <t>COCO BIT KY.GRP 350</t>
+  </si>
+  <si>
+    <t>20140331</t>
+  </si>
+  <si>
+    <t>COCO BIT STRAW.S 350</t>
+  </si>
+  <si>
+    <t>20140332</t>
+  </si>
+  <si>
+    <t>COCO BIT HOK.MLN 350</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>20069527</t>
-  </si>
-  <si>
-    <t>NU TEH TARIK 330ML</t>
+    <t>20141360</t>
+  </si>
+  <si>
+    <t>PORORO ZERO MILK 235</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>20093638</t>
-  </si>
-  <si>
-    <t>IDM BISC MILK CHO 40</t>
+    <t>20141361</t>
+  </si>
+  <si>
+    <t>PORORO ZERO STRW 235</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20133409</t>
-  </si>
-  <si>
-    <t>KK CAFFE LATTE 200ML</t>
-  </si>
-  <si>
-    <t>20138167</t>
-  </si>
-  <si>
-    <t>KK JPNS MATCHA 200</t>
-  </si>
-  <si>
-    <t>20138168</t>
-  </si>
-  <si>
-    <t>KK CHEESE LATTEE 200</t>
-  </si>
-  <si>
-    <t>20045415</t>
-  </si>
-  <si>
-    <t>KOPIKO 78C 240ML</t>
-  </si>
-  <si>
-    <t>20120499</t>
-  </si>
-  <si>
-    <t>K/A SIGNT STRONG 200</t>
-  </si>
-  <si>
-    <t>RT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20089792</t>
-  </si>
-  <si>
-    <t>K/A DRNK BLK COFF200</t>
-  </si>
-  <si>
-    <t>20089821</t>
-  </si>
-  <si>
-    <t>ORONAMIN C DRINK 120</t>
-  </si>
-  <si>
-    <t>RT,(E-1.5B)</t>
-  </si>
-  <si>
-    <t>10006263</t>
-  </si>
-  <si>
-    <t>HEMAVITON ENERGY 150</t>
+    <t>20138252</t>
+  </si>
+  <si>
+    <t>EXTRA JOSS ULTIMT250</t>
+  </si>
+  <si>
+    <t>20117687</t>
+  </si>
+  <si>
+    <t>DLMNT BOBA MTCHA 240</t>
   </si>
   <si>
     <t>RT,(E-3B)</t>
   </si>
   <si>
-    <t>20139550</t>
-  </si>
-  <si>
-    <t>REGEN LMN LIME 300ML</t>
-  </si>
-  <si>
-    <t>20141124</t>
-  </si>
-  <si>
-    <t>REGEN ORANGE 300ML</t>
-  </si>
-  <si>
-    <t>20048546</t>
-  </si>
-  <si>
-    <t>HEMAVITON C1000 330</t>
-  </si>
-  <si>
-    <t>20103178</t>
-  </si>
-  <si>
-    <t>HMVTON C1000 LSO 330</t>
-  </si>
-  <si>
-    <t>20103368</t>
-  </si>
-  <si>
-    <t>HMVTON C1000 LMN 330</t>
-  </si>
-  <si>
-    <t>10033567</t>
-  </si>
-  <si>
-    <t>BINTANG ZERO KLG 330</t>
-  </si>
-  <si>
-    <t>20121348</t>
-  </si>
-  <si>
-    <t>LASEGAR TWST J-L 320</t>
+    <t>20117682</t>
+  </si>
+  <si>
+    <t>DLMNT BOBA RD.VEL240</t>
+  </si>
+  <si>
+    <t>20135975</t>
+  </si>
+  <si>
+    <t>OLATTE STRWB KLG 240</t>
+  </si>
+  <si>
+    <t>20089806</t>
+  </si>
+  <si>
+    <t>OLATTE PEAR KLG 240</t>
+  </si>
+  <si>
+    <t>RT,(E-2.5B)</t>
   </si>
   <si>
     <t>20136277</t>
@@ -256,82 +226,64 @@
     <t>SNPRD FRT MG.PINE220</t>
   </si>
   <si>
-    <t>20117687</t>
-  </si>
-  <si>
-    <t>DLMNT BOBA MTCHA 240</t>
-  </si>
-  <si>
-    <t>20117682</t>
-  </si>
-  <si>
-    <t>DLMNT BOBA RD.VEL240</t>
-  </si>
-  <si>
-    <t>20103718</t>
-  </si>
-  <si>
-    <t>TJH KURMA SUSU KR189</t>
-  </si>
-  <si>
-    <t>20136644</t>
-  </si>
-  <si>
-    <t>DIAMOND UHT MARSM200</t>
-  </si>
-  <si>
-    <t>20091807</t>
-  </si>
-  <si>
-    <t>DIAMOND UHT CKLT 200</t>
-  </si>
-  <si>
-    <t>20137977</t>
-  </si>
-  <si>
-    <t>DIAMOND UHT BBLGM200</t>
-  </si>
-  <si>
-    <t>20136649</t>
-  </si>
-  <si>
-    <t>DIAMOND JC CRANBR200</t>
-  </si>
-  <si>
-    <t>20136647</t>
-  </si>
-  <si>
-    <t>DIAMOND JC GUAVA 200</t>
-  </si>
-  <si>
-    <t>20123171</t>
-  </si>
-  <si>
-    <t>LACTASOY MILK CLG250</t>
-  </si>
-  <si>
-    <t>20087410</t>
-  </si>
-  <si>
-    <t>GRNFLD UHT F.CRM 105</t>
-  </si>
-  <si>
-    <t>20130190</t>
-  </si>
-  <si>
-    <t>GRNFLD UHT CHOCO 105</t>
-  </si>
-  <si>
-    <t>20087412</t>
-  </si>
-  <si>
-    <t>GRNFLD UHT STRAW 105</t>
-  </si>
-  <si>
-    <t>20096322</t>
-  </si>
-  <si>
-    <t>FF SS CAIR PLAIN 110</t>
+    <t>20119876</t>
+  </si>
+  <si>
+    <t>HYDR.COCO VITA-D 330</t>
+  </si>
+  <si>
+    <t>10005909</t>
+  </si>
+  <si>
+    <t>INDOMILK UHT PLN 950</t>
+  </si>
+  <si>
+    <t>10004884</t>
+  </si>
+  <si>
+    <t>INDOMILK UHT CHO 950</t>
+  </si>
+  <si>
+    <t>10000405</t>
+  </si>
+  <si>
+    <t>ULTRA SUSU UHT PLN1L</t>
+  </si>
+  <si>
+    <t>10036647</t>
+  </si>
+  <si>
+    <t>ULTRA SUSU UHT CHO1L</t>
+  </si>
+  <si>
+    <t>10004669</t>
+  </si>
+  <si>
+    <t>ULTRA UHT CHOCO 250M</t>
+  </si>
+  <si>
+    <t>20139358</t>
+  </si>
+  <si>
+    <t>MILO PRO UHT 225ML</t>
+  </si>
+  <si>
+    <t>10004779</t>
+  </si>
+  <si>
+    <t>INDOMILK KID CKL 115</t>
+  </si>
+  <si>
+    <t>10004780</t>
+  </si>
+  <si>
+    <t>INDOMILK KID STRW115</t>
+  </si>
+  <si>
+    <t>20057229</t>
+  </si>
+  <si>
+    <t>VIDORAN SUSU COK 110</t>
   </si>
 </sst>
 </file>
@@ -724,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -832,24 +784,24 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
@@ -857,10 +809,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -869,18 +821,18 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -889,18 +841,18 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -909,18 +861,18 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -929,18 +881,18 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -949,18 +901,18 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -969,10 +921,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -986,13 +938,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1006,61 +958,61 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -1069,18 +1021,18 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -1089,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>5</v>
@@ -1097,10 +1049,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -1109,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>5</v>
@@ -1117,10 +1069,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -1129,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>5</v>
@@ -1137,10 +1089,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -1149,18 +1101,18 @@
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -1169,98 +1121,98 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -1269,18 +1221,18 @@
         <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -1289,18 +1241,18 @@
         <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -1309,27 +1261,27 @@
         <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>5</v>
@@ -1337,99 +1289,99 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>5</v>
@@ -1437,19 +1389,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>5</v>
@@ -1457,19 +1409,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>5</v>
@@ -1477,162 +1429,22 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
